--- a/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009893</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002885</t>
+          <t>009893</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+          <t>摩根士丹利华鑫优悦安和混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.67</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>6.73</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>007519</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>东方阿尔法优选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93.82</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>7.45</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>002885</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -800,15 +910,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.90</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005359</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -846,25 +976,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>77.81</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>519026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>海富通中小盘混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>92.60</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.15</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>005359</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>007519</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>东方阿尔法优选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>89.60</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>9.62</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007590</t>
+          <t>000612</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华宝绿色领先股票</t>
+          <t>华宝生态中国混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519026</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海富通中小盘混合</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002634</t>
+          <t>007590</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝未来主导产业灵活配置混合</t>
+          <t>华宝绿色领先股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>002634</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>华宝未来主导产业灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9602</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6473</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1904,4 +1905,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2341,4 +2342,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.12</v>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9091</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2397,14 +2440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.79</v>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2413,14 +2478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.85</v>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5591</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2429,13 +2516,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2787,7 +2788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2798,17 +2799,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2818,14 +2839,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.57</v>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6080</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2834,14 +2877,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.12</v>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2850,14 +2915,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.79</v>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2866,14 +2953,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.85</v>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2882,13 +2991,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3224,7 +3225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,17 +3236,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3255,14 +3276,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.78</v>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4801</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3271,14 +3314,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.57</v>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3287,14 +3352,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.12</v>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3303,14 +3390,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.79</v>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3319,14 +3428,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.85</v>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3335,13 +3466,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,395 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9745</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>233006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大摩领先优势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3831</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007518</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3278</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000309</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大摩品质生活精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2863</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009893</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1771</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1322</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1077</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1036</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002885</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0446</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -855,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -906,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>012368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8930</t>
+          <t>0.4801</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -954,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3566</t>
+          <t>0.3702</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -982,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2761</t>
+          <t>0.2593</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1020,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>95.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2476</t>
+          <t>0.2333</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1058,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519026</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通中小盘混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1919</t>
+          <t>0.1460</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1096,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>012369</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1585</t>
+          <t>0.0342</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1134,302 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005359</t>
+          <t>014871</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1584</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>77.81</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1555</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.60</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1337</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1266</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000612</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华宝生态中国混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.46</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0912</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>210002</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>金鹰红利价值混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007590</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宝绿色领先股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002634</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华宝未来主导产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.26</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1464,7 +948,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1504,22 +988,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.32</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9602</t>
+          <t>0.6080</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1532,36 +1016,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>012368</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6473</t>
+          <t>0.5420</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1570,32 +1054,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5831</t>
+          <t>0.3995</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1618,22 +1102,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3964</t>
+          <t>0.3832</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1656,26 +1140,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2811</t>
+          <t>0.3623</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1684,36 +1168,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519026</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海富通中小盘混合</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2637</t>
+          <t>0.2321</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1722,36 +1206,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2602</t>
+          <t>0.1619</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1770,26 +1254,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1327</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1798,32 +1282,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>012369</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1218</t>
+          <t>0.0376</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1836,73 +1320,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>011185</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>东方阿尔法招阳混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1210</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011185</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方阿尔法招阳混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>76.32</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,7 +1384,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1978,26 +1424,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8148</t>
+          <t>0.9091</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2006,32 +1452,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>012368</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6104</t>
+          <t>0.6312</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2044,36 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4035</t>
+          <t>0.5591</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2082,32 +1528,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3558</t>
+          <t>0.4780</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2130,26 +1576,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3104</t>
+          <t>0.3461</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2158,36 +1604,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2008</t>
+          <t>0.3029</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2196,36 +1642,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519026</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海富通中小盘混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1935</t>
+          <t>0.2116</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2244,26 +1690,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1245</t>
+          <t>0.0664</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2272,36 +1718,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>012369</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>85.57</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0915</t>
+          <t>0.0520</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2320,26 +1766,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2374,7 +1820,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2414,26 +1860,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9091</t>
+          <t>0.8148</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2442,32 +1888,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012368</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6312</t>
+          <t>0.6104</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2480,36 +1926,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5591</t>
+          <t>0.4035</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2518,32 +1964,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4780</t>
+          <t>0.3558</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2566,26 +2012,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3461</t>
+          <t>0.3104</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2594,36 +2040,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3029</t>
+          <t>0.2008</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2632,36 +2078,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>519026</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>海富通中小盘混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2116</t>
+          <t>0.1935</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2680,26 +2126,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0664</t>
+          <t>0.1245</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2708,36 +2154,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012369</t>
+          <t>000612</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+          <t>华宝生态中国混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>85.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2756,26 +2202,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2789,7 +2235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2810,7 +2256,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2850,22 +2296,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>76.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6080</t>
+          <t>0.9602</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2878,36 +2324,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012368</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5420</t>
+          <t>0.6473</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2916,32 +2362,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3995</t>
+          <t>0.5831</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2964,22 +2410,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3832</t>
+          <t>0.3964</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3002,26 +2448,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3623</t>
+          <t>0.2811</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3030,36 +2476,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>519026</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>海富通中小盘混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2321</t>
+          <t>0.2637</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3068,36 +2514,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1619</t>
+          <t>0.2602</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -3116,26 +2562,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.1327</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -3144,32 +2590,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012369</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0376</t>
+          <t>0.1218</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3182,35 +2628,73 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>011185</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>东方阿尔法招阳混合C</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3225,7 +2709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3246,7 +2730,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3276,32 +2760,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012368</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>92.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4801</t>
+          <t>0.8930</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3324,26 +2808,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3702</t>
+          <t>0.3566</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3352,36 +2836,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2593</t>
+          <t>0.2761</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3390,36 +2874,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.16</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2333</t>
+          <t>0.2476</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3428,36 +2912,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>519026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>海富通中小盘混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1460</t>
+          <t>0.1919</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3466,36 +2950,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012369</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0342</t>
+          <t>0.1585</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3504,36 +2988,302 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014871</t>
+          <t>005359</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+          <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>92.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.1584</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3547,144 +3297,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.54</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.78</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>3.57</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>3.79</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>2.85</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.54</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4801</t>
+          <t>0.4323</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3702</t>
+          <t>0.3456</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2593</t>
+          <t>0.3126</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -775,31 +792,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>大摩新兴产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.16</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2333</t>
+          <t>0.1952</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -813,27 +830,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1460</t>
+          <t>0.0966</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -851,31 +868,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0342</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -894,17 +911,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -927,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -978,36 +995,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011184</t>
+          <t>012368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方阿尔法招阳混合A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6080</t>
+          <t>0.4801</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1016,36 +1033,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012368</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5420</t>
+          <t>0.3702</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1054,36 +1071,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3995</t>
+          <t>0.2593</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1092,32 +1109,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>95.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3832</t>
+          <t>0.2333</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1130,36 +1147,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3623</t>
+          <t>0.1460</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1168,32 +1185,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>012369</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2321</t>
+          <t>0.0342</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1206,149 +1223,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>014871</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1619</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0501</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012369</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0376</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011185</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方阿尔法招阳混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1424,26 +1327,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9091</t>
+          <t>0.6080</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1462,22 +1365,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6312</t>
+          <t>0.5420</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1500,26 +1403,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5591</t>
+          <t>0.3995</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1538,22 +1441,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4780</t>
+          <t>0.3832</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1576,26 +1479,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3461</t>
+          <t>0.3623</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1614,7 +1517,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1624,12 +1527,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3029</t>
+          <t>0.2321</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1652,22 +1555,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2116</t>
+          <t>0.1619</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1690,26 +1593,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0664</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1728,22 +1631,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0376</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1766,26 +1669,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1723,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1860,26 +1763,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8148</t>
+          <t>0.9091</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1888,32 +1791,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>012368</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6104</t>
+          <t>0.6312</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1926,36 +1829,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4035</t>
+          <t>0.5591</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1964,32 +1867,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3558</t>
+          <t>0.4780</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2012,26 +1915,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3104</t>
+          <t>0.3461</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2040,36 +1943,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2008</t>
+          <t>0.3029</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2078,36 +1981,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519026</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海富通中小盘混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1935</t>
+          <t>0.2116</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2126,26 +2029,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1245</t>
+          <t>0.0664</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2154,36 +2057,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>012369</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>85.57</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0915</t>
+          <t>0.0520</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2202,26 +2105,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2230,6 +2133,442 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2703,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3291,7 +3630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002609-捷顺科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.42</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.78</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>3.57</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>3.79</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>2.85</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,432 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +1088,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012368</t>
+          <t>110029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合A</t>
+          <t>易方达科讯混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>31.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>85.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4323</t>
+          <t>1.0575</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1126,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>006533</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>易方达科融混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>18.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>88.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3456</t>
+          <t>0.6002</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -749,32 +1164,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>012368</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3126</t>
+          <t>0.4356</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,32 +1202,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大摩新兴产业股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1952</t>
+          <t>0.3591</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -825,32 +1240,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0966</t>
+          <t>0.3133</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -863,32 +1278,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012369</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
+          <t>大摩新兴产业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0293</t>
+          <t>0.1984</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -901,35 +1316,263 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014727</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014728</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>014871</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1000,31 +1643,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4801</t>
+          <t>0.4323</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1043,26 +1686,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3702</t>
+          <t>0.3456</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1081,26 +1724,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2593</t>
+          <t>0.3126</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1114,31 +1757,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>大摩新兴产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.16</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2333</t>
+          <t>0.1952</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1152,27 +1795,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1460</t>
+          <t>0.0966</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1190,31 +1833,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0342</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1233,17 +1876,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1266,7 +1909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,36 +1960,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011184</t>
+          <t>012368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方阿尔法招阳混合A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6080</t>
+          <t>0.4801</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1355,36 +1998,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012368</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5420</t>
+          <t>0.3702</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1393,36 +2036,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3995</t>
+          <t>0.2593</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1431,32 +2074,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>95.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3832</t>
+          <t>0.2333</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1469,36 +2112,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3623</t>
+          <t>0.1460</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1507,32 +2150,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>012369</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2321</t>
+          <t>0.0342</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1545,149 +2188,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>014871</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1619</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0501</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012369</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0376</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011185</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方阿尔法招阳混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,26 +2292,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9091</t>
+          <t>0.6080</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1801,22 +2330,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6312</t>
+          <t>0.5420</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1839,26 +2368,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5591</t>
+          <t>0.3995</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1877,22 +2406,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4780</t>
+          <t>0.3832</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1915,26 +2444,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3461</t>
+          <t>0.3623</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1953,7 +2482,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1963,12 +2492,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3029</t>
+          <t>0.2321</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1991,22 +2520,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2116</t>
+          <t>0.1619</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2029,26 +2558,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0664</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2067,22 +2596,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0376</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2105,26 +2634,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2688,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2199,26 +2728,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8148</t>
+          <t>0.9091</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2227,32 +2756,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>012368</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6104</t>
+          <t>0.6312</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2265,36 +2794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4035</t>
+          <t>0.5591</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2303,32 +2832,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3558</t>
+          <t>0.4780</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2351,26 +2880,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3104</t>
+          <t>0.3461</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2379,36 +2908,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2008</t>
+          <t>0.3029</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2417,36 +2946,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519026</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海富通中小盘混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1935</t>
+          <t>0.2116</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2465,26 +2994,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1245</t>
+          <t>0.0664</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2493,36 +3022,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>012369</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>85.57</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0915</t>
+          <t>0.0520</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2541,26 +3070,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2569,6 +3098,442 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3042,7 +4007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3628,402 +4593,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9745</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>233006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大摩领先优势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3831</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007518</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3278</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000309</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大摩品质生活精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2863</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009893</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1771</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1322</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1077</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1036</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002885</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0446</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>